--- a/BackTest/2019-10-26 BackTest LINK.xlsx
+++ b/BackTest/2019-10-26 BackTest LINK.xlsx
@@ -9621,13 +9621,17 @@
         <v>3236.2</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3245</v>
+      </c>
+      <c r="K264" t="n">
+        <v>3245</v>
+      </c>
       <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
@@ -9656,14 +9660,22 @@
         <v>3233.4</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3230</v>
+      </c>
+      <c r="K265" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9691,14 +9703,22 @@
         <v>3233.4</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3231</v>
+      </c>
+      <c r="K266" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9726,14 +9746,22 @@
         <v>3233.2</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3230</v>
+      </c>
+      <c r="K267" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9767,8 +9795,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9802,8 +9836,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9837,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9872,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9907,8 +9959,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9942,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9977,8 +10041,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10012,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10047,8 +10123,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10082,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10117,8 +10205,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10152,8 +10246,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10187,8 +10287,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10328,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +10369,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10292,8 +10410,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10327,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10362,8 +10492,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +10533,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +10574,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +10615,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10502,8 +10656,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +10697,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +10738,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10607,8 +10779,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10642,8 +10820,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10677,8 +10861,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10712,8 +10902,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10747,8 +10943,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10782,8 +10984,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11066,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10887,8 +11107,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10922,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +11189,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +11230,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11062,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11353,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11132,8 +11394,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11167,8 +11435,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11202,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11237,8 +11517,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11272,8 +11558,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +11599,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +11640,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11681,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +11722,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11447,8 +11763,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11482,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11517,8 +11845,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +11886,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +11927,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11622,8 +11968,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11657,8 +12009,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +12050,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +12091,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11762,8 +12132,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11797,8 +12173,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11832,8 +12214,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11867,8 +12255,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11902,8 +12296,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +12337,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12378,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12419,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12042,8 +12460,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12077,8 +12501,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12112,8 +12542,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +12583,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12217,8 +12665,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12252,8 +12706,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12287,8 +12747,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12322,8 +12788,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12357,8 +12829,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +12870,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12427,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12459,13 +12949,19 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>3245</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M345" t="n">
-        <v>1</v>
+        <v>1.030747303543914</v>
       </c>
     </row>
     <row r="346">
@@ -12494,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
@@ -12564,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
@@ -13996,14 +14492,20 @@
         <v>3254.8</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3273</v>
+      </c>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14031,14 +14533,20 @@
         <v>3253.6</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3250</v>
+      </c>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14066,14 +14574,20 @@
         <v>3241.4</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3230</v>
+      </c>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14101,14 +14615,20 @@
         <v>3241</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3220</v>
+      </c>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14136,14 +14656,20 @@
         <v>3236</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3232</v>
+      </c>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +14704,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14213,7 +14743,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +14782,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14276,14 +14814,20 @@
         <v>3248.6</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3238</v>
+      </c>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14318,7 +14862,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14346,14 +14894,20 @@
         <v>3234</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3217</v>
+      </c>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +14942,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14423,7 +14981,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14458,7 +15020,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14493,7 +15059,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14528,7 +15098,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +15137,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +15176,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14633,7 +15215,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +15254,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14703,7 +15293,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +15332,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +15371,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +15410,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15449,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +15488,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14913,7 +15527,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +15566,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +15605,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15644,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +15683,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +15722,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +15761,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +15800,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +15839,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +15878,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15917,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +15956,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +15995,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15368,7 +16034,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +16073,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15438,7 +16112,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15473,7 +16151,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15508,7 +16190,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15543,7 +16229,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15578,7 +16268,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15613,7 +16307,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15648,7 +16346,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15683,7 +16385,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +16424,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15753,7 +16463,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15788,7 +16502,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +16541,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -15858,7 +16580,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -15893,7 +16619,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -15928,7 +16658,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -15963,7 +16697,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16736,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16033,7 +16775,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16068,7 +16814,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16103,7 +16853,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16138,7 +16892,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16173,7 +16931,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16208,7 +16970,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16243,7 +17009,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16278,7 +17048,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16313,7 +17087,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16348,7 +17126,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16383,7 +17165,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +17204,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16453,7 +17243,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16488,7 +17282,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16523,7 +17321,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +17360,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16593,7 +17399,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16628,7 +17438,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16663,7 +17477,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16698,7 +17516,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16733,7 +17555,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16768,7 +17594,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16803,7 +17633,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -16838,7 +17672,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17711,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +17750,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -16943,7 +17789,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -16978,7 +17828,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17013,7 +17867,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17048,7 +17906,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17083,7 +17945,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17118,7 +17984,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +18023,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17188,7 +18062,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17223,7 +18101,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17258,7 +18140,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17293,7 +18179,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17328,7 +18218,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17363,7 +18257,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17398,7 +18296,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17433,7 +18335,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17468,7 +18374,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17503,7 +18413,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +18452,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +18491,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17608,7 +18530,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +18569,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17678,7 +18608,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +18647,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17748,7 +18686,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +18725,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +18764,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17853,7 +18803,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +18842,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17923,7 +18881,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17958,7 +18920,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17993,7 +18959,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18998,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18063,7 +19037,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18098,7 +19076,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18133,7 +19115,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18168,7 +19154,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18203,7 +19193,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18238,7 +19232,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18273,7 +19271,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +19310,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18343,7 +19349,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18378,7 +19388,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18413,7 +19427,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18448,7 +19466,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18483,7 +19505,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18518,7 +19544,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18553,7 +19583,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18588,7 +19622,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18623,7 +19661,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18658,7 +19700,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18693,7 +19739,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18728,7 +19778,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18763,7 +19817,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +19856,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18833,7 +19895,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18868,7 +19934,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18903,7 +19973,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18938,7 +20012,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +20051,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19008,7 +20090,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19043,7 +20129,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19078,7 +20168,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19113,7 +20207,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19148,7 +20246,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +20285,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19218,7 +20324,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19253,7 +20363,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19288,7 +20402,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19323,7 +20441,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19358,7 +20480,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19393,7 +20519,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19428,7 +20558,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +20597,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19498,7 +20636,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19533,7 +20675,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19568,7 +20714,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19603,7 +20753,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19638,7 +20792,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +20831,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19708,7 +20870,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19743,7 +20909,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19778,7 +20948,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19813,7 +20987,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19848,7 +21026,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -19883,7 +21065,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -19918,7 +21104,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -19953,7 +21143,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -19988,7 +21182,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20023,7 +21221,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20058,7 +21260,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20093,7 +21299,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20128,7 +21338,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20163,7 +21377,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20198,7 +21416,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20233,7 +21455,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20268,7 +21494,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +21533,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +21572,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20373,7 +21611,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20408,7 +21650,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20443,7 +21689,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20478,7 +21728,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20513,7 +21767,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20548,7 +21806,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20583,7 +21845,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +21884,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -20653,7 +21923,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -20681,18 +21955,18 @@
         <v>3224.4</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K580" t="n">
-        <v>3219</v>
-      </c>
-      <c r="L580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -20720,20 +21994,16 @@
         <v>3222.4</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K581" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M581" t="n">
@@ -20763,17 +22033,13 @@
         <v>3220.4</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>3222</v>
-      </c>
-      <c r="K582" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20806,17 +22072,13 @@
         <v>3220.8</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K583" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20849,17 +22111,13 @@
         <v>3218.4</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>3217</v>
-      </c>
-      <c r="K584" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20892,17 +22150,13 @@
         <v>3218.4</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K585" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,17 +22189,13 @@
         <v>3218.4</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K586" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20978,17 +22228,13 @@
         <v>3216.4</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>3212</v>
-      </c>
-      <c r="K587" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21021,17 +22267,13 @@
         <v>3213</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>3208</v>
-      </c>
-      <c r="K588" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21064,17 +22306,13 @@
         <v>3211.2</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>3205</v>
-      </c>
-      <c r="K589" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21107,17 +22345,13 @@
         <v>3208</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>3203</v>
-      </c>
-      <c r="K590" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21150,17 +22384,13 @@
         <v>3209.8</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>3203</v>
-      </c>
-      <c r="K591" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21193,17 +22423,13 @@
         <v>3211.6</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>3218</v>
-      </c>
-      <c r="K592" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21236,17 +22462,13 @@
         <v>3214.2</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>3218</v>
-      </c>
-      <c r="K593" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21279,17 +22501,13 @@
         <v>3217</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>3215</v>
-      </c>
-      <c r="K594" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21322,17 +22540,13 @@
         <v>3223.2</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>3224</v>
-      </c>
-      <c r="K595" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21365,17 +22579,13 @@
         <v>3224.4</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>3234</v>
-      </c>
-      <c r="K596" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21408,17 +22618,13 @@
         <v>3230.4</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>3249</v>
-      </c>
-      <c r="K597" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21451,17 +22657,13 @@
         <v>3236.6</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>3248</v>
-      </c>
-      <c r="K598" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21494,17 +22696,13 @@
         <v>3241.2</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>3241</v>
-      </c>
-      <c r="K599" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21537,17 +22735,13 @@
         <v>3240.2</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>3229</v>
-      </c>
-      <c r="K600" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21580,17 +22774,13 @@
         <v>3239.2</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>3229</v>
-      </c>
-      <c r="K601" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21623,17 +22813,13 @@
         <v>3240.6</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>3254</v>
-      </c>
-      <c r="K602" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21666,17 +22852,13 @@
         <v>3241.8</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K603" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,17 +22891,13 @@
         <v>3242.8</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>3253</v>
-      </c>
-      <c r="K604" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21752,17 +22930,13 @@
         <v>3243.2</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>3231</v>
-      </c>
-      <c r="K605" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21795,17 +22969,13 @@
         <v>3242.6</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>3229</v>
-      </c>
-      <c r="K606" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21838,17 +23008,13 @@
         <v>3242</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>3252</v>
-      </c>
-      <c r="K607" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21881,17 +23047,13 @@
         <v>3239.6</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>3252</v>
-      </c>
-      <c r="K608" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21924,17 +23086,13 @@
         <v>3240.6</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>3243</v>
-      </c>
-      <c r="K609" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21967,17 +23125,13 @@
         <v>3244.8</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>3251</v>
-      </c>
-      <c r="K610" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22016,9 +23170,7 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22057,9 +23209,7 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22098,9 +23248,7 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22139,9 +23287,7 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22180,9 +23326,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22221,9 +23365,7 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22262,9 +23404,7 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22303,9 +23443,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22344,9 +23482,7 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22385,9 +23521,7 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22420,17 +23554,13 @@
         <v>3228.8</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>3220</v>
-      </c>
-      <c r="K621" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22463,17 +23593,13 @@
         <v>3224.4</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>3220</v>
-      </c>
-      <c r="K622" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22506,17 +23632,13 @@
         <v>3224.6</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>3231</v>
-      </c>
-      <c r="K623" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22549,17 +23671,13 @@
         <v>3226.6</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>3236</v>
-      </c>
-      <c r="K624" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22592,17 +23710,13 @@
         <v>3228.6</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>3236</v>
-      </c>
-      <c r="K625" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22635,17 +23749,13 @@
         <v>3233.6</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>3237</v>
-      </c>
-      <c r="K626" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22678,17 +23788,13 @@
         <v>3234</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>3222</v>
-      </c>
-      <c r="K627" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22721,17 +23827,13 @@
         <v>3230.8</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>3220</v>
-      </c>
-      <c r="K628" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22764,17 +23866,13 @@
         <v>3233.8</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>3220</v>
-      </c>
-      <c r="K629" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22807,17 +23905,13 @@
         <v>3245.6</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>3247</v>
-      </c>
-      <c r="K630" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22856,9 +23950,7 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22897,9 +23989,7 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22938,9 +24028,7 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22979,9 +24067,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23020,9 +24106,7 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23061,9 +24145,7 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23102,9 +24184,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23143,9 +24223,7 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23184,9 +24262,7 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23225,9 +24301,7 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23266,9 +24340,7 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23307,9 +24379,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23348,9 +24418,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23389,9 +24457,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23430,9 +24496,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23471,9 +24535,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23512,9 +24574,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23553,9 +24613,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23594,9 +24652,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23635,9 +24691,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23676,9 +24730,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23717,9 +24769,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,9 +24808,7 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23799,9 +24847,7 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23840,9 +24886,7 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23881,9 +24925,7 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23922,9 +24964,7 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23963,9 +25003,7 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24004,9 +25042,7 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24045,9 +25081,7 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24086,9 +25120,7 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24127,9 +25159,7 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24168,9 +25198,7 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24209,9 +25237,7 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24250,9 +25276,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24291,9 +25315,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24332,9 +25354,7 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24373,9 +25393,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24414,9 +25432,7 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24455,9 +25471,7 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24496,9 +25510,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24537,9 +25549,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24578,9 +25588,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24619,9 +25627,7 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24660,9 +25666,7 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24701,9 +25705,7 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24742,9 +25744,7 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24783,9 +25783,7 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24824,9 +25822,7 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24865,9 +25861,7 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24906,9 +25900,7 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24947,9 +25939,7 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24988,9 +25978,7 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25029,9 +26017,7 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25070,9 +26056,7 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25111,9 +26095,7 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25152,9 +26134,7 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25193,9 +26173,7 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25234,9 +26212,7 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25275,9 +26251,7 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25316,9 +26290,7 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25357,9 +26329,7 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25398,9 +26368,7 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25439,9 +26407,7 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25480,9 +26446,7 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25521,9 +26485,7 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25562,9 +26524,7 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25603,9 +26563,7 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25644,9 +26602,7 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25685,9 +26641,7 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25726,9 +26680,7 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25767,9 +26719,7 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25808,9 +26758,7 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25849,9 +26797,7 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25884,15 +26830,15 @@
         <v>3239.4</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J705" t="n">
+        <v>3236</v>
+      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25925,15 +26871,15 @@
         <v>3239.4</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J706" t="n">
+        <v>3240</v>
+      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25966,15 +26912,15 @@
         <v>3239.6</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J707" t="n">
+        <v>3242</v>
+      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26007,15 +26953,15 @@
         <v>3242.2</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J708" t="n">
+        <v>3244</v>
+      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26048,15 +26994,15 @@
         <v>3244</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J709" t="n">
+        <v>3249</v>
+      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26089,15 +27035,15 @@
         <v>3245.4</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J710" t="n">
+        <v>3245</v>
+      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26130,15 +27076,15 @@
         <v>3246.4</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="n">
-        <v>3219</v>
-      </c>
+      <c r="J711" t="n">
+        <v>3247</v>
+      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26177,9 +27123,7 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26218,9 +27162,7 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26259,9 +27201,7 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26300,9 +27240,7 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26341,9 +27279,7 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26382,9 +27318,7 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26423,9 +27357,7 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26464,9 +27396,7 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26505,9 +27435,7 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26546,9 +27474,7 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26587,9 +27513,7 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="n">
-        <v>3219</v>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest LINK.xlsx
+++ b/BackTest/2019-10-26 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8331.396635535519</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8331.396635535519</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3262</v>
@@ -523,7 +523,7 @@
         <v>7335.032235535518</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3262</v>
@@ -562,7 +562,7 @@
         <v>7335.032235535518</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3261</v>
@@ -601,7 +601,7 @@
         <v>6287.160635535518</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3261</v>
@@ -640,7 +640,7 @@
         <v>6222.749235535518</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3255</v>
@@ -679,7 +679,7 @@
         <v>6992.713235535518</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3254</v>
@@ -718,7 +718,7 @@
         <v>7078.855235535518</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3256</v>
@@ -757,7 +757,7 @@
         <v>10047.50153553552</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3258</v>
@@ -796,7 +796,7 @@
         <v>20738.17713553552</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3261</v>
@@ -835,11 +835,9 @@
         <v>21222.17713553552</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1207,9 +1205,11 @@
         <v>26121.51053553552</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3272</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -3538,18 +3538,16 @@
         <v>102993.356762525</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -3575,15 +3573,11 @@
         <v>105428.356762525</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3612,15 +3606,11 @@
         <v>105991.969862525</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3649,15 +3639,11 @@
         <v>106350.3655083885</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3686,16 +3672,14 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3721,7 +3705,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3754,7 +3738,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3787,7 +3771,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3820,7 +3804,7 @@
         <v>106929.3070083885</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3853,7 +3837,7 @@
         <v>106944.1433292819</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3886,7 +3870,7 @@
         <v>106974.7094292819</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3919,7 +3903,7 @@
         <v>105742.1094292819</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3952,7 +3936,7 @@
         <v>105749.0481292819</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3985,7 +3969,7 @@
         <v>105648.3314292819</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4018,7 +4002,7 @@
         <v>105469.0314292819</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4051,7 +4035,7 @@
         <v>105216.9286292819</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4084,7 +4068,7 @@
         <v>106309.7273292819</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4117,7 +4101,7 @@
         <v>108622.6985292819</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4150,7 +4134,7 @@
         <v>108592.6985292819</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4183,7 +4167,7 @@
         <v>108593.2007292819</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4216,7 +4200,7 @@
         <v>106811.4517292819</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4249,7 +4233,7 @@
         <v>106811.4517292819</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4282,7 +4266,7 @@
         <v>106811.9539292819</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4315,7 +4299,7 @@
         <v>106905.1289292819</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4348,7 +4332,7 @@
         <v>106935.1289292819</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4381,7 +4365,7 @@
         <v>107526.7558292819</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4414,7 +4398,7 @@
         <v>107260.8071292819</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4447,7 +4431,7 @@
         <v>107329.2264292819</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4480,7 +4464,7 @@
         <v>107272.0607292819</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4513,7 +4497,7 @@
         <v>106641.3675692579</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4546,7 +4530,7 @@
         <v>106572.9482692579</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4579,7 +4563,7 @@
         <v>106511.5478692579</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4612,7 +4596,7 @@
         <v>106391.7156692579</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5008,7 +4992,7 @@
         <v>100968.3732692579</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5041,7 +5025,7 @@
         <v>100968.3732692579</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5074,7 +5058,7 @@
         <v>100959.3732692579</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5107,7 +5091,7 @@
         <v>98770.69706925791</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5140,7 +5124,7 @@
         <v>98770.69706925791</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5173,7 +5157,7 @@
         <v>97929.56626925791</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5206,7 +5190,7 @@
         <v>97615.38276925791</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5239,7 +5223,7 @@
         <v>97615.38276925791</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5272,7 +5256,7 @@
         <v>96148.14056925791</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5305,7 +5289,7 @@
         <v>96165.34856925791</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5338,7 +5322,7 @@
         <v>96165.34856925791</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5371,7 +5355,7 @@
         <v>96165.34856925791</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -14182,7 +14166,7 @@
         <v>114125.7027897707</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14413,7 +14397,7 @@
         <v>108447.2563700949</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14644,7 +14628,7 @@
         <v>109008.1486700949</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14677,7 +14661,7 @@
         <v>110244.3226700949</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14710,7 +14694,7 @@
         <v>110058.3444700949</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14743,7 +14727,7 @@
         <v>109156.2949700949</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14776,7 +14760,7 @@
         <v>109480.0466700949</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14809,7 +14793,7 @@
         <v>109963.8022700949</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14842,7 +14826,7 @@
         <v>108992.1754700949</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14875,7 +14859,7 @@
         <v>108451.9746700949</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14908,7 +14892,7 @@
         <v>108864.6553700949</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14941,7 +14925,7 @@
         <v>110900.5315700949</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14974,7 +14958,7 @@
         <v>111063.9142700949</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15007,7 +14991,7 @@
         <v>107175.7156700949</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15040,7 +15024,7 @@
         <v>107122.2285700949</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15073,7 +15057,7 @@
         <v>107385.9046700949</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15106,7 +15090,7 @@
         <v>106977.5634700949</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15238,7 +15222,7 @@
         <v>106646.2556700949</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15337,7 +15321,7 @@
         <v>93252.79937009493</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15370,7 +15354,7 @@
         <v>84661.15207009493</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15436,7 +15420,7 @@
         <v>86016.65147009493</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15469,7 +15453,7 @@
         <v>85271.33817009494</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15502,7 +15486,7 @@
         <v>85579.92356575641</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15535,7 +15519,7 @@
         <v>85360.15876575641</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15568,7 +15552,7 @@
         <v>83167.02686575642</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15601,7 +15585,7 @@
         <v>79780.12216575642</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15634,7 +15618,7 @@
         <v>81108.14376575642</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15667,7 +15651,7 @@
         <v>81268.31976575643</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15700,7 +15684,7 @@
         <v>81452.31976575643</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15733,7 +15717,7 @@
         <v>81527.18856575643</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15766,7 +15750,7 @@
         <v>80580.65746575643</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -21475,10 +21459,14 @@
         <v>34853.02814013148</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3233</v>
+      </c>
+      <c r="J628" t="n">
+        <v>3233</v>
+      </c>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
@@ -21508,11 +21496,19 @@
         <v>34958.29354013148</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3233</v>
+      </c>
+      <c r="J629" t="n">
+        <v>3233</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21544,8 +21540,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3233</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21640,14 +21642,10 @@
         <v>35867.04204013148</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>3233</v>
-      </c>
-      <c r="J633" t="n">
-        <v>3233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
@@ -21680,14 +21678,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21719,443 +21711,383 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K635" t="inlineStr">
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>3232</v>
+      </c>
+      <c r="C636" t="n">
+        <v>3229</v>
+      </c>
+      <c r="D636" t="n">
+        <v>3232</v>
+      </c>
+      <c r="E636" t="n">
+        <v>3229</v>
+      </c>
+      <c r="F636" t="n">
+        <v>424.1306</v>
+      </c>
+      <c r="G636" t="n">
+        <v>37439.48944013147</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>3225</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3220</v>
+      </c>
+      <c r="D637" t="n">
+        <v>3225</v>
+      </c>
+      <c r="E637" t="n">
+        <v>3220</v>
+      </c>
+      <c r="F637" t="n">
+        <v>2310.7922</v>
+      </c>
+      <c r="G637" t="n">
+        <v>35128.69724013147</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>3225</v>
+      </c>
+      <c r="C638" t="n">
+        <v>3225</v>
+      </c>
+      <c r="D638" t="n">
+        <v>3225</v>
+      </c>
+      <c r="E638" t="n">
+        <v>3225</v>
+      </c>
+      <c r="F638" t="n">
+        <v>476.02</v>
+      </c>
+      <c r="G638" t="n">
+        <v>35604.71724013147</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>3219</v>
+      </c>
+      <c r="C639" t="n">
+        <v>3219</v>
+      </c>
+      <c r="D639" t="n">
+        <v>3219</v>
+      </c>
+      <c r="E639" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1</v>
+      </c>
+      <c r="G639" t="n">
+        <v>35603.71724013147</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>3219</v>
+      </c>
+      <c r="C640" t="n">
+        <v>3219</v>
+      </c>
+      <c r="D640" t="n">
+        <v>3220</v>
+      </c>
+      <c r="E640" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F640" t="n">
+        <v>4052.6111</v>
+      </c>
+      <c r="G640" t="n">
+        <v>35603.71724013147</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>3222</v>
+      </c>
+      <c r="C641" t="n">
+        <v>3219</v>
+      </c>
+      <c r="D641" t="n">
+        <v>3222</v>
+      </c>
+      <c r="E641" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F641" t="n">
+        <v>309.435</v>
+      </c>
+      <c r="G641" t="n">
+        <v>35603.71724013147</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>3219</v>
+      </c>
+      <c r="C642" t="n">
+        <v>3222</v>
+      </c>
+      <c r="D642" t="n">
+        <v>3222</v>
+      </c>
+      <c r="E642" t="n">
+        <v>3218</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1523.2709</v>
+      </c>
+      <c r="G642" t="n">
+        <v>37126.98814013147</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>3217</v>
+      </c>
+      <c r="C643" t="n">
+        <v>3213</v>
+      </c>
+      <c r="D643" t="n">
+        <v>3217</v>
+      </c>
+      <c r="E643" t="n">
+        <v>3213</v>
+      </c>
+      <c r="F643" t="n">
+        <v>66</v>
+      </c>
+      <c r="G643" t="n">
+        <v>37060.98814013147</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>3219</v>
+      </c>
+      <c r="C644" t="n">
+        <v>3219</v>
+      </c>
+      <c r="D644" t="n">
+        <v>3219</v>
+      </c>
+      <c r="E644" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F644" t="n">
+        <v>54.2947</v>
+      </c>
+      <c r="G644" t="n">
+        <v>37115.28284013147</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>3219</v>
+      </c>
+      <c r="C645" t="n">
+        <v>3219</v>
+      </c>
+      <c r="D645" t="n">
+        <v>3219</v>
+      </c>
+      <c r="E645" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F645" t="n">
+        <v>115.749</v>
+      </c>
+      <c r="G645" t="n">
+        <v>37115.28284013147</v>
+      </c>
+      <c r="H645" t="n">
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3219</v>
+      </c>
+      <c r="J645" t="n">
+        <v>3219</v>
+      </c>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>3212</v>
+      </c>
+      <c r="C646" t="n">
+        <v>3209</v>
+      </c>
+      <c r="D646" t="n">
+        <v>3212</v>
+      </c>
+      <c r="E646" t="n">
+        <v>3209</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1219.1869</v>
+      </c>
+      <c r="G646" t="n">
+        <v>35896.09594013147</v>
+      </c>
+      <c r="H646" t="n">
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3219</v>
+      </c>
+      <c r="J646" t="n">
+        <v>3219</v>
+      </c>
+      <c r="K646" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>3232</v>
-      </c>
-      <c r="C636" t="n">
-        <v>3229</v>
-      </c>
-      <c r="D636" t="n">
-        <v>3232</v>
-      </c>
-      <c r="E636" t="n">
-        <v>3229</v>
-      </c>
-      <c r="F636" t="n">
-        <v>424.1306</v>
-      </c>
-      <c r="G636" t="n">
-        <v>37439.48944013147</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>3225</v>
-      </c>
-      <c r="C637" t="n">
-        <v>3220</v>
-      </c>
-      <c r="D637" t="n">
-        <v>3225</v>
-      </c>
-      <c r="E637" t="n">
-        <v>3220</v>
-      </c>
-      <c r="F637" t="n">
-        <v>2310.7922</v>
-      </c>
-      <c r="G637" t="n">
-        <v>35128.69724013147</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>3225</v>
-      </c>
-      <c r="C638" t="n">
-        <v>3225</v>
-      </c>
-      <c r="D638" t="n">
-        <v>3225</v>
-      </c>
-      <c r="E638" t="n">
-        <v>3225</v>
-      </c>
-      <c r="F638" t="n">
-        <v>476.02</v>
-      </c>
-      <c r="G638" t="n">
-        <v>35604.71724013147</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>3219</v>
-      </c>
-      <c r="C639" t="n">
-        <v>3219</v>
-      </c>
-      <c r="D639" t="n">
-        <v>3219</v>
-      </c>
-      <c r="E639" t="n">
-        <v>3219</v>
-      </c>
-      <c r="F639" t="n">
-        <v>1</v>
-      </c>
-      <c r="G639" t="n">
-        <v>35603.71724013147</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>3219</v>
-      </c>
-      <c r="C640" t="n">
-        <v>3219</v>
-      </c>
-      <c r="D640" t="n">
-        <v>3220</v>
-      </c>
-      <c r="E640" t="n">
-        <v>3219</v>
-      </c>
-      <c r="F640" t="n">
-        <v>4052.6111</v>
-      </c>
-      <c r="G640" t="n">
-        <v>35603.71724013147</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>3222</v>
-      </c>
-      <c r="C641" t="n">
-        <v>3219</v>
-      </c>
-      <c r="D641" t="n">
-        <v>3222</v>
-      </c>
-      <c r="E641" t="n">
-        <v>3219</v>
-      </c>
-      <c r="F641" t="n">
-        <v>309.435</v>
-      </c>
-      <c r="G641" t="n">
-        <v>35603.71724013147</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>3219</v>
-      </c>
-      <c r="C642" t="n">
-        <v>3222</v>
-      </c>
-      <c r="D642" t="n">
-        <v>3222</v>
-      </c>
-      <c r="E642" t="n">
-        <v>3218</v>
-      </c>
-      <c r="F642" t="n">
-        <v>1523.2709</v>
-      </c>
-      <c r="G642" t="n">
-        <v>37126.98814013147</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>3217</v>
-      </c>
-      <c r="C643" t="n">
-        <v>3213</v>
-      </c>
-      <c r="D643" t="n">
-        <v>3217</v>
-      </c>
-      <c r="E643" t="n">
-        <v>3213</v>
-      </c>
-      <c r="F643" t="n">
-        <v>66</v>
-      </c>
-      <c r="G643" t="n">
-        <v>37060.98814013147</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>3219</v>
-      </c>
-      <c r="C644" t="n">
-        <v>3219</v>
-      </c>
-      <c r="D644" t="n">
-        <v>3219</v>
-      </c>
-      <c r="E644" t="n">
-        <v>3219</v>
-      </c>
-      <c r="F644" t="n">
-        <v>54.2947</v>
-      </c>
-      <c r="G644" t="n">
-        <v>37115.28284013147</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>3219</v>
-      </c>
-      <c r="C645" t="n">
-        <v>3219</v>
-      </c>
-      <c r="D645" t="n">
-        <v>3219</v>
-      </c>
-      <c r="E645" t="n">
-        <v>3219</v>
-      </c>
-      <c r="F645" t="n">
-        <v>115.749</v>
-      </c>
-      <c r="G645" t="n">
-        <v>37115.28284013147</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>3212</v>
-      </c>
-      <c r="C646" t="n">
-        <v>3209</v>
-      </c>
-      <c r="D646" t="n">
-        <v>3212</v>
-      </c>
-      <c r="E646" t="n">
-        <v>3209</v>
-      </c>
-      <c r="F646" t="n">
-        <v>1219.1869</v>
-      </c>
-      <c r="G646" t="n">
-        <v>35896.09594013147</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22184,11 +22116,13 @@
         <v>33729.81014013147</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3209</v>
+      </c>
       <c r="J647" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22223,13 +22157,13 @@
         <v>33568.34084013147</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>3205</v>
       </c>
       <c r="J648" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22264,13 +22198,13 @@
         <v>32005.06374013147</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>3204</v>
       </c>
       <c r="J649" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22305,13 +22239,13 @@
         <v>34045.53284013148</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>3203</v>
       </c>
       <c r="J650" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22346,13 +22280,13 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>3228</v>
       </c>
       <c r="J651" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22387,13 +22321,13 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>3218</v>
       </c>
       <c r="J652" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22428,13 +22362,13 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>3218</v>
       </c>
       <c r="J653" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22469,13 +22403,13 @@
         <v>33518.50274013147</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>3218</v>
       </c>
       <c r="J654" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22510,13 +22444,13 @@
         <v>33518.50274013147</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>3234</v>
       </c>
       <c r="J655" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22551,13 +22485,13 @@
         <v>33676.94194013147</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>3234</v>
       </c>
       <c r="J656" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22592,13 +22526,13 @@
         <v>36675.57964013147</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>3248</v>
       </c>
       <c r="J657" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22633,13 +22567,13 @@
         <v>36554.01834013147</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>3249</v>
       </c>
       <c r="J658" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22674,13 +22608,13 @@
         <v>35311.75834013147</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>3241</v>
       </c>
       <c r="J659" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22715,13 +22649,13 @@
         <v>35311.75834013147</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>3229</v>
       </c>
       <c r="J660" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22756,13 +22690,13 @@
         <v>35609.87564013147</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>3229</v>
       </c>
       <c r="J661" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22797,13 +22731,11 @@
         <v>35609.87564013147</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>3255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22842,7 +22774,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22881,7 +22813,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22920,7 +22852,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22959,7 +22891,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22998,7 +22930,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23037,7 +22969,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23076,7 +23008,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23115,7 +23047,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23154,7 +23086,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23193,7 +23125,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23232,7 +23164,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23271,7 +23203,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23310,7 +23242,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23349,7 +23281,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23388,7 +23320,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23427,7 +23359,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23466,7 +23398,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23505,7 +23437,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23540,11 +23472,13 @@
         <v>25746.96874013147</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>3220</v>
+      </c>
       <c r="J681" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23579,11 +23513,13 @@
         <v>27285.27944013147</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3220</v>
+      </c>
       <c r="J682" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23618,13 +23554,13 @@
         <v>27301.27944013147</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>3231</v>
       </c>
       <c r="J683" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23659,13 +23595,13 @@
         <v>27301.27944013147</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>3236</v>
       </c>
       <c r="J684" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23700,13 +23636,13 @@
         <v>29936.64251957677</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>3236</v>
       </c>
       <c r="J685" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23741,11 +23677,13 @@
         <v>29587.94211957677</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>3245</v>
+      </c>
       <c r="J686" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23784,7 +23722,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23823,7 +23761,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23862,7 +23800,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23901,7 +23839,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23940,7 +23878,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23979,7 +23917,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24018,7 +23956,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24057,7 +23995,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24096,7 +24034,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24135,7 +24073,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24174,7 +24112,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24213,7 +24151,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24252,7 +24190,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24291,7 +24229,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24330,7 +24268,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24369,7 +24307,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24408,7 +24346,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24447,7 +24385,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24486,7 +24424,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24525,7 +24463,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24564,7 +24502,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24603,7 +24541,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24642,7 +24580,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24681,7 +24619,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24720,7 +24658,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24759,7 +24697,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24798,7 +24736,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24837,7 +24775,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24876,7 +24814,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24915,7 +24853,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24954,7 +24892,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24993,7 +24931,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25032,7 +24970,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25071,7 +25009,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25110,7 +25048,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -25149,7 +25087,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25188,7 +25126,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25227,7 +25165,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25266,7 +25204,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25305,7 +25243,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25344,7 +25282,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25383,7 +25321,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25422,7 +25360,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25461,7 +25399,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25500,7 +25438,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25539,7 +25477,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25578,7 +25516,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25613,11 +25551,13 @@
         <v>50817.15656787821</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>3260</v>
+      </c>
       <c r="J734" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25656,7 +25596,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25695,7 +25635,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25734,7 +25674,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25773,7 +25713,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25812,7 +25752,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25851,7 +25791,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25890,7 +25830,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25929,7 +25869,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25968,7 +25908,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26007,7 +25947,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26046,7 +25986,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26085,7 +26025,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26124,7 +26064,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26163,7 +26103,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26202,7 +26142,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26241,7 +26181,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26280,7 +26220,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26319,7 +26259,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26358,7 +26298,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26397,7 +26337,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26436,7 +26376,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26475,7 +26415,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26514,7 +26454,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26553,7 +26493,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26592,7 +26532,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26631,7 +26571,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26670,7 +26610,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26709,7 +26649,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26748,7 +26688,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26787,7 +26727,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26826,7 +26766,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26865,7 +26805,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26904,7 +26844,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26943,7 +26883,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26982,7 +26922,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -27021,7 +26961,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -27060,7 +27000,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27099,7 +27039,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27138,7 +27078,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -27177,7 +27117,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27216,7 +27156,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27255,7 +27195,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27294,7 +27234,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27333,7 +27273,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27372,7 +27312,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27411,7 +27351,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27450,7 +27390,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27489,7 +27429,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27528,7 +27468,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27567,7 +27507,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27606,7 +27546,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27645,7 +27585,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27684,7 +27624,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27723,7 +27663,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27762,7 +27702,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27801,7 +27741,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27840,7 +27780,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>3233</v>
+        <v>3219</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27853,6 +27793,6 @@
       <c r="M791" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LINK.xlsx
+++ b/BackTest/2019-10-26 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1205,11 +1205,9 @@
         <v>26121.51053553552</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1688,18 +1686,16 @@
         <v>81052.85439364248</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1725,15 +1721,11 @@
         <v>90396.02709380364</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1762,15 +1754,11 @@
         <v>93315.47489380364</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1799,15 +1787,11 @@
         <v>93293.78479380363</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1836,15 +1820,11 @@
         <v>93343.78479380363</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1873,15 +1853,11 @@
         <v>93353.67319380362</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1910,15 +1886,11 @@
         <v>93506.84899380362</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1947,15 +1919,11 @@
         <v>93784.92919380362</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1984,15 +1952,11 @@
         <v>92921.73969380363</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2021,15 +1985,11 @@
         <v>92267.70169380362</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2058,15 +2018,11 @@
         <v>92552.05179380362</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2095,15 +2051,11 @@
         <v>92564.05179380362</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2132,15 +2084,11 @@
         <v>92284.05179380362</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2169,15 +2117,11 @@
         <v>92295.93719380362</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2154,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2243,15 +2183,11 @@
         <v>91816.93209380363</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2220,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2253,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2286,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2319,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2432,11 +2352,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2385,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2506,11 +2418,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2451,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,11 +2484,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2517,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,11 +2550,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2583,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2616,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2765,11 +2649,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2682,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2715,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2748,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +2781,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2814,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2847,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2880,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +2913,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +2946,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +2979,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +3012,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +3045,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +3078,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3283,11 +3111,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3144,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3177,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3210,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3243,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3276,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3309,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3538,16 +3338,14 @@
         <v>102993.356762525</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
       <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -3573,7 +3371,7 @@
         <v>105428.356762525</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3606,7 +3404,7 @@
         <v>105991.969862525</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3639,7 +3437,7 @@
         <v>106350.3655083885</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3672,7 +3470,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3738,7 +3536,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3771,7 +3569,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3804,7 +3602,7 @@
         <v>106929.3070083885</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3837,7 +3635,7 @@
         <v>106944.1433292819</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3870,7 +3668,7 @@
         <v>106974.7094292819</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3903,7 +3701,7 @@
         <v>105742.1094292819</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3936,7 +3734,7 @@
         <v>105749.0481292819</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3969,7 +3767,7 @@
         <v>105648.3314292819</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4002,7 +3800,7 @@
         <v>105469.0314292819</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4035,7 +3833,7 @@
         <v>105216.9286292819</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4068,7 +3866,7 @@
         <v>106309.7273292819</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4101,7 +3899,7 @@
         <v>108622.6985292819</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4134,7 +3932,7 @@
         <v>108592.6985292819</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4167,7 +3965,7 @@
         <v>108593.2007292819</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4200,7 +3998,7 @@
         <v>106811.4517292819</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4233,7 +4031,7 @@
         <v>106811.4517292819</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4266,7 +4064,7 @@
         <v>106811.9539292819</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4299,7 +4097,7 @@
         <v>106905.1289292819</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4332,7 +4130,7 @@
         <v>106935.1289292819</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4365,7 +4163,7 @@
         <v>107526.7558292819</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4398,7 +4196,7 @@
         <v>107260.8071292819</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4431,7 +4229,7 @@
         <v>107329.2264292819</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4464,7 +4262,7 @@
         <v>107272.0607292819</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4497,7 +4295,7 @@
         <v>106641.3675692579</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4530,7 +4328,7 @@
         <v>106572.9482692579</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4563,7 +4361,7 @@
         <v>106511.5478692579</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4596,7 +4394,7 @@
         <v>106391.7156692579</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4992,7 +4790,7 @@
         <v>100968.3732692579</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5025,7 +4823,7 @@
         <v>100968.3732692579</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5058,7 +4856,7 @@
         <v>100959.3732692579</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5091,7 +4889,7 @@
         <v>98770.69706925791</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5124,7 +4922,7 @@
         <v>98770.69706925791</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5157,7 +4955,7 @@
         <v>97929.56626925791</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5190,7 +4988,7 @@
         <v>97615.38276925791</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5223,7 +5021,7 @@
         <v>97615.38276925791</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5256,7 +5054,7 @@
         <v>96148.14056925791</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5289,7 +5087,7 @@
         <v>96165.34856925791</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5322,7 +5120,7 @@
         <v>96165.34856925791</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5355,7 +5153,7 @@
         <v>96165.34856925791</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -14001,7 +13799,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14034,7 +13832,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14067,7 +13865,7 @@
         <v>110329.2114897707</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14100,7 +13898,7 @@
         <v>113112.2929897707</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14133,7 +13931,7 @@
         <v>115185.8069897707</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14166,7 +13964,7 @@
         <v>114125.7027897707</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14199,7 +13997,7 @@
         <v>118329.6022036555</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14232,7 +14030,7 @@
         <v>115579.3843036555</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14265,7 +14063,7 @@
         <v>110096.4162036555</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14298,7 +14096,7 @@
         <v>112456.0407036555</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14331,7 +14129,7 @@
         <v>112710.3132036555</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14364,7 +14162,7 @@
         <v>109673.7100700949</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14430,7 +14228,7 @@
         <v>107331.0454700949</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14463,7 +14261,7 @@
         <v>108286.9904700949</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14496,7 +14294,7 @@
         <v>110328.2770700949</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14628,7 +14426,7 @@
         <v>109008.1486700949</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14661,7 +14459,7 @@
         <v>110244.3226700949</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14694,7 +14492,7 @@
         <v>110058.3444700949</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14727,7 +14525,7 @@
         <v>109156.2949700949</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14793,7 +14591,7 @@
         <v>109963.8022700949</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15420,7 +15218,7 @@
         <v>86016.65147009493</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15453,7 +15251,7 @@
         <v>85271.33817009494</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15486,7 +15284,7 @@
         <v>85579.92356575641</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15519,7 +15317,7 @@
         <v>85360.15876575641</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15552,7 +15350,7 @@
         <v>83167.02686575642</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15585,7 +15383,7 @@
         <v>79780.12216575642</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15618,7 +15416,7 @@
         <v>81108.14376575642</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15651,7 +15449,7 @@
         <v>81268.31976575643</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15684,7 +15482,7 @@
         <v>81452.31976575643</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15717,7 +15515,7 @@
         <v>81527.18856575643</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15750,7 +15548,7 @@
         <v>80580.65746575643</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -21459,14 +21257,10 @@
         <v>34853.02814013148</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>3233</v>
-      </c>
-      <c r="J628" t="n">
-        <v>3233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
@@ -21496,19 +21290,11 @@
         <v>34958.29354013148</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>3233</v>
-      </c>
-      <c r="J629" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21540,14 +21326,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3233</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22038,14 +21818,10 @@
         <v>37115.28284013147</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>3219</v>
-      </c>
-      <c r="J645" t="n">
-        <v>3219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
@@ -22075,19 +21851,11 @@
         <v>35896.09594013147</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>3219</v>
-      </c>
-      <c r="J646" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22116,19 +21884,11 @@
         <v>33729.81014013147</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>3209</v>
-      </c>
-      <c r="J647" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22157,19 +21917,11 @@
         <v>33568.34084013147</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>3205</v>
-      </c>
-      <c r="J648" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22198,19 +21950,11 @@
         <v>32005.06374013147</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>3204</v>
-      </c>
-      <c r="J649" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22239,19 +21983,11 @@
         <v>34045.53284013148</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3203</v>
-      </c>
-      <c r="J650" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22280,19 +22016,11 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>3228</v>
-      </c>
-      <c r="J651" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22321,19 +22049,11 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>3218</v>
-      </c>
-      <c r="J652" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22362,19 +22082,11 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>3218</v>
-      </c>
-      <c r="J653" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22403,19 +22115,11 @@
         <v>33518.50274013147</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>3218</v>
-      </c>
-      <c r="J654" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22444,19 +22148,11 @@
         <v>33518.50274013147</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>3234</v>
-      </c>
-      <c r="J655" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22485,19 +22181,11 @@
         <v>33676.94194013147</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>3234</v>
-      </c>
-      <c r="J656" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22526,19 +22214,11 @@
         <v>36675.57964013147</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>3248</v>
-      </c>
-      <c r="J657" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22567,19 +22247,11 @@
         <v>36554.01834013147</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>3249</v>
-      </c>
-      <c r="J658" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22608,19 +22280,11 @@
         <v>35311.75834013147</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>3241</v>
-      </c>
-      <c r="J659" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22649,19 +22313,11 @@
         <v>35311.75834013147</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>3229</v>
-      </c>
-      <c r="J660" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22690,19 +22346,11 @@
         <v>35609.87564013147</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>3229</v>
-      </c>
-      <c r="J661" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22734,14 +22382,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22773,14 +22415,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22812,14 +22448,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22851,14 +22481,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22890,14 +22514,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22929,14 +22547,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22968,14 +22580,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23007,14 +22613,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23046,14 +22646,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23085,14 +22679,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23124,14 +22712,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23163,14 +22745,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23202,14 +22778,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23241,14 +22811,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23280,14 +22844,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23319,14 +22877,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23358,14 +22910,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23397,14 +22943,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23436,14 +22976,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23472,19 +23006,11 @@
         <v>25746.96874013147</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>3220</v>
-      </c>
-      <c r="J681" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23513,19 +23039,11 @@
         <v>27285.27944013147</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>3220</v>
-      </c>
-      <c r="J682" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23554,19 +23072,11 @@
         <v>27301.27944013147</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>3231</v>
-      </c>
-      <c r="J683" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23595,19 +23105,11 @@
         <v>27301.27944013147</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>3236</v>
-      </c>
-      <c r="J684" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23636,19 +23138,11 @@
         <v>29936.64251957677</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>3236</v>
-      </c>
-      <c r="J685" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23677,19 +23171,11 @@
         <v>29587.94211957677</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>3245</v>
-      </c>
-      <c r="J686" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23721,14 +23207,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23760,14 +23240,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23799,14 +23273,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23838,14 +23306,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23877,14 +23339,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23916,14 +23372,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23955,14 +23405,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23994,14 +23438,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24033,14 +23471,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24072,14 +23504,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24111,14 +23537,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24150,14 +23570,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24189,14 +23603,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24228,14 +23636,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24267,14 +23669,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24306,14 +23702,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24345,14 +23735,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24384,14 +23768,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24423,14 +23801,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24462,14 +23834,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24501,14 +23867,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24540,14 +23900,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24579,14 +23933,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24618,14 +23966,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24657,14 +23999,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24696,14 +24032,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24735,14 +24065,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24774,14 +24098,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24813,14 +24131,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24852,14 +24164,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24891,14 +24197,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24930,14 +24230,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24969,14 +24263,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25008,14 +24296,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25047,14 +24329,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25086,14 +24362,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25125,14 +24395,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25164,14 +24428,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25203,14 +24461,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25242,14 +24494,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25281,14 +24527,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25320,14 +24560,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25359,14 +24593,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25398,14 +24626,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25437,14 +24659,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25476,14 +24692,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25515,14 +24725,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25551,19 +24755,11 @@
         <v>50817.15656787821</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>3260</v>
-      </c>
-      <c r="J734" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25595,14 +24791,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25634,14 +24824,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25673,14 +24857,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25712,14 +24890,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25751,14 +24923,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25790,14 +24956,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25829,14 +24989,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25868,14 +25022,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25907,14 +25055,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25946,14 +25088,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25985,14 +25121,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26024,14 +25154,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26063,14 +25187,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26102,14 +25220,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26141,14 +25253,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26180,14 +25286,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26219,14 +25319,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26258,14 +25352,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26297,14 +25385,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26336,14 +25418,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26375,14 +25451,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26414,14 +25484,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26453,14 +25517,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26492,14 +25550,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26531,14 +25583,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26570,14 +25616,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26609,14 +25649,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26648,14 +25682,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26687,14 +25715,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26726,14 +25748,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26765,14 +25781,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26804,14 +25814,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26843,14 +25847,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26882,14 +25880,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26921,14 +25913,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26960,14 +25946,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26999,14 +25979,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27038,14 +26012,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27077,14 +26045,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27116,14 +26078,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27155,14 +26111,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27194,14 +26144,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27233,14 +26177,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27272,14 +26210,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27311,14 +26243,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27350,14 +26276,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27389,14 +26309,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27428,14 +26342,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27467,14 +26375,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27506,14 +26408,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27545,14 +26441,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27584,14 +26474,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27623,14 +26507,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27662,14 +26540,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27701,14 +26573,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27740,14 +26606,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27779,20 +26639,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3219</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
       <c r="M791" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LINK.xlsx
+++ b/BackTest/2019-10-26 BackTest LINK.xlsx
@@ -1686,16 +1686,18 @@
         <v>81052.85439364248</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1721,11 +1723,15 @@
         <v>90396.02709380364</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1760,15 @@
         <v>93315.47489380364</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1797,15 @@
         <v>93293.78479380363</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1834,15 @@
         <v>93343.78479380363</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1871,15 @@
         <v>93353.67319380362</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1908,15 @@
         <v>93506.84899380362</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +1945,15 @@
         <v>93784.92919380362</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +1982,15 @@
         <v>92921.73969380363</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2019,15 @@
         <v>92267.70169380362</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2056,15 @@
         <v>92552.05179380362</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2093,15 @@
         <v>92564.05179380362</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2130,15 @@
         <v>92284.05179380362</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2167,15 @@
         <v>92295.93719380362</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2208,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2241,15 @@
         <v>91816.93209380363</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2282,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2319,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2356,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2393,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2430,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2467,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2504,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2541,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2578,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2615,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2652,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2583,7 +2689,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2726,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2763,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2800,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2837,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2748,7 +2874,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +2911,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +2948,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +2985,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2880,7 +3022,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2913,7 +3059,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +3096,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +3133,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3012,7 +3170,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3207,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3244,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3281,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3144,7 +3318,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3355,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3392,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3429,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3466,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3503,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3540,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3577,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3614,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3651,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3470,14 +3684,16 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3503,7 +3719,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3536,7 +3752,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3569,7 +3785,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3602,7 +3818,7 @@
         <v>106929.3070083885</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3635,7 +3851,7 @@
         <v>106944.1433292819</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -13799,7 +14015,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13832,7 +14048,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13865,7 +14081,7 @@
         <v>110329.2114897707</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13898,7 +14114,7 @@
         <v>113112.2929897707</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13931,7 +14147,7 @@
         <v>115185.8069897707</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13964,7 +14180,7 @@
         <v>114125.7027897707</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13997,7 +14213,7 @@
         <v>118329.6022036555</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14030,7 +14246,7 @@
         <v>115579.3843036555</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14063,7 +14279,7 @@
         <v>110096.4162036555</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14096,7 +14312,7 @@
         <v>112456.0407036555</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14129,7 +14345,7 @@
         <v>112710.3132036555</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14162,7 +14378,7 @@
         <v>109673.7100700949</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14195,7 +14411,7 @@
         <v>108447.2563700949</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14228,7 +14444,7 @@
         <v>107331.0454700949</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14261,7 +14477,7 @@
         <v>108286.9904700949</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14294,7 +14510,7 @@
         <v>110328.2770700949</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14624,7 +14840,7 @@
         <v>108992.1754700949</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14657,7 +14873,7 @@
         <v>108451.9746700949</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14690,7 +14906,7 @@
         <v>108864.6553700949</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14723,7 +14939,7 @@
         <v>110900.5315700949</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14756,7 +14972,7 @@
         <v>111063.9142700949</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14789,7 +15005,7 @@
         <v>107175.7156700949</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14822,7 +15038,7 @@
         <v>107122.2285700949</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14855,7 +15071,7 @@
         <v>107385.9046700949</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
